--- a/documentation/projman/Week 1 - 3/COST BENEFIT ANALYSIS.xlsx
+++ b/documentation/projman/Week 1 - 3/COST BENEFIT ANALYSIS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://asiapacificcollege.sharepoint.com/sites/PROJMANT3MI201MI203/Shared Documents/Group 02 Team Developmentality/Midterm Deliverables/Week 1 - 3/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jakerson Bermudo\Desktop\DEVELOPMENTALITY\APC_2022_2023_T3_PROJMAN_MI201_MI203_G02_Team_Developmentality\documentation\projman\Week 1 - 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="71" documentId="13_ncr:1_{DC659375-308F-4E59-8B02-A43F533F67DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6BBFFE37-9CB0-429C-A22D-1CEF24C646A6}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D49CE3E-CB57-4CD5-9960-7552BC5132BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7740A76B-2112-4292-BAF3-277CD24D9B80}"/>
   </bookViews>
@@ -160,9 +160,6 @@
     <t>Equipments</t>
   </si>
   <si>
-    <t>Administrative Roles</t>
-  </si>
-  <si>
     <t>Estimated Project Cost</t>
   </si>
   <si>
@@ -212,6 +209,9 @@
   </si>
   <si>
     <t>Estimated increase per yer:</t>
+  </si>
+  <si>
+    <t>Miscellaneous Expenses</t>
   </si>
 </sst>
 </file>
@@ -903,6 +903,108 @@
     <xf numFmtId="44" fontId="3" fillId="10" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="44" fontId="9" fillId="6" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="3" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="3" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="3" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="3" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="12" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="12" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="3" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="3" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="12" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="12" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -921,24 +1023,12 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -948,84 +1038,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="12" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="12" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="3" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="3" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="3" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="12" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="12" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="3" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="3" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="3" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1067,18 +1079,6 @@
     </xf>
     <xf numFmtId="43" fontId="0" fillId="3" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2132,10 +2132,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2436,7 +2432,7 @@
   <dimension ref="D4:P41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M40" sqref="M40"/>
+      <selection activeCell="D5" sqref="D5:I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2453,72 +2449,72 @@
   <sheetData>
     <row r="4" spans="4:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="5" spans="4:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D5" s="28" t="s">
+      <c r="D5" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="30"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="64"/>
     </row>
     <row r="6" spans="4:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D6" s="40" t="s">
+      <c r="D6" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="42"/>
+      <c r="E6" s="71"/>
+      <c r="F6" s="71"/>
+      <c r="G6" s="72"/>
       <c r="H6" s="48">
         <v>12</v>
       </c>
       <c r="I6" s="49"/>
     </row>
     <row r="7" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D7" s="31" t="s">
+      <c r="D7" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="32"/>
-      <c r="H7" s="32"/>
-      <c r="I7" s="33"/>
+      <c r="E7" s="66"/>
+      <c r="F7" s="66"/>
+      <c r="G7" s="66"/>
+      <c r="H7" s="66"/>
+      <c r="I7" s="67"/>
     </row>
     <row r="8" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D8" s="34" t="s">
+      <c r="D8" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="36"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="42"/>
     </row>
     <row r="9" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D9" s="37" t="s">
+      <c r="D9" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="38" t="s">
+      <c r="E9" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="F9" s="38" t="s">
+      <c r="F9" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="39" t="s">
+      <c r="G9" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="H9" s="39" t="s">
+      <c r="H9" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="I9" s="58"/>
+      <c r="I9" s="59"/>
     </row>
     <row r="10" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D10" s="37"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="39"/>
-      <c r="I10" s="58"/>
+      <c r="D10" s="68"/>
+      <c r="E10" s="69"/>
+      <c r="F10" s="69"/>
+      <c r="G10" s="58"/>
+      <c r="H10" s="58"/>
+      <c r="I10" s="59"/>
     </row>
     <row r="11" spans="4:12" x14ac:dyDescent="0.3">
       <c r="D11" s="10" t="s">
@@ -2534,11 +2530,11 @@
       <c r="G11" s="12">
         <v>1</v>
       </c>
-      <c r="H11" s="59">
+      <c r="H11" s="37">
         <f>F11*G11</f>
         <v>607260</v>
       </c>
-      <c r="I11" s="60"/>
+      <c r="I11" s="38"/>
       <c r="K11" s="20" t="s">
         <v>10</v>
       </c>
@@ -2557,11 +2553,11 @@
       <c r="G12" s="12">
         <v>1</v>
       </c>
-      <c r="H12" s="59">
+      <c r="H12" s="37">
         <f>F12*G12</f>
         <v>702000</v>
       </c>
-      <c r="I12" s="60"/>
+      <c r="I12" s="38"/>
       <c r="K12" s="20" t="s">
         <v>12</v>
       </c>
@@ -2583,11 +2579,11 @@
       <c r="G13" s="12">
         <v>1</v>
       </c>
-      <c r="H13" s="59">
+      <c r="H13" s="37">
         <f t="shared" ref="H13" si="0">F13*G13</f>
         <v>954000</v>
       </c>
-      <c r="I13" s="60"/>
+      <c r="I13" s="38"/>
       <c r="K13" s="20" t="s">
         <v>15</v>
       </c>
@@ -2606,11 +2602,11 @@
       <c r="G14" s="12">
         <v>2</v>
       </c>
-      <c r="H14" s="66">
+      <c r="H14" s="35">
         <f t="shared" ref="H14" si="2">F14*G14</f>
         <v>960000</v>
       </c>
-      <c r="I14" s="67"/>
+      <c r="I14" s="36"/>
       <c r="K14" s="20" t="s">
         <v>17</v>
       </c>
@@ -2629,11 +2625,11 @@
       <c r="G15" s="12">
         <v>1</v>
       </c>
-      <c r="H15" s="59">
+      <c r="H15" s="37">
         <f>F15*G15</f>
         <v>492708</v>
       </c>
-      <c r="I15" s="60"/>
+      <c r="I15" s="38"/>
       <c r="K15" s="20" t="s">
         <v>19</v>
       </c>
@@ -2645,21 +2641,21 @@
       <c r="E16" s="57"/>
       <c r="F16" s="57"/>
       <c r="G16" s="57"/>
-      <c r="H16" s="61">
+      <c r="H16" s="60">
         <f>SUM(H11:H15)</f>
         <v>3715968</v>
       </c>
-      <c r="I16" s="62"/>
+      <c r="I16" s="61"/>
     </row>
     <row r="17" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D17" s="34" t="s">
+      <c r="D17" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="35"/>
-      <c r="I17" s="36"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="41"/>
+      <c r="I17" s="42"/>
     </row>
     <row r="18" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D18" s="10" t="s">
@@ -2668,15 +2664,15 @@
       <c r="E18" s="11">
         <v>4999</v>
       </c>
-      <c r="F18" s="66" t="s">
+      <c r="F18" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="G18" s="68"/>
-      <c r="H18" s="59">
+      <c r="G18" s="39"/>
+      <c r="H18" s="37">
         <f>E18</f>
         <v>4999</v>
       </c>
-      <c r="I18" s="60"/>
+      <c r="I18" s="38"/>
       <c r="K18" s="20" t="s">
         <v>24</v>
       </c>
@@ -2688,15 +2684,15 @@
       <c r="E19" s="11">
         <v>799</v>
       </c>
-      <c r="F19" s="66" t="s">
+      <c r="F19" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="G19" s="68"/>
-      <c r="H19" s="59">
+      <c r="G19" s="39"/>
+      <c r="H19" s="37">
         <f>E19*12</f>
         <v>9588</v>
       </c>
-      <c r="I19" s="60"/>
+      <c r="I19" s="38"/>
       <c r="K19" s="20" t="s">
         <v>27</v>
       </c>
@@ -2708,15 +2704,15 @@
       <c r="E20" s="11">
         <v>99</v>
       </c>
-      <c r="F20" s="66" t="s">
+      <c r="F20" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="G20" s="68"/>
-      <c r="H20" s="59">
+      <c r="G20" s="39"/>
+      <c r="H20" s="37">
         <f>E20*12</f>
         <v>1188</v>
       </c>
-      <c r="I20" s="60"/>
+      <c r="I20" s="38"/>
       <c r="K20" s="20" t="s">
         <v>29</v>
       </c>
@@ -2728,26 +2724,26 @@
       <c r="E21" s="11">
         <v>30000</v>
       </c>
-      <c r="F21" s="66" t="s">
+      <c r="F21" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="G21" s="68"/>
-      <c r="H21" s="59">
+      <c r="G21" s="39"/>
+      <c r="H21" s="37">
         <f>E21*12</f>
         <v>360000</v>
       </c>
-      <c r="I21" s="60"/>
+      <c r="I21" s="38"/>
       <c r="K21" s="20" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="22" spans="4:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D22" s="63" t="s">
+      <c r="D22" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="E22" s="64"/>
-      <c r="F22" s="64"/>
-      <c r="G22" s="65"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="34"/>
       <c r="H22" s="50">
         <f>SUM(H18:I21)</f>
         <v>375775</v>
@@ -2755,14 +2751,14 @@
       <c r="I22" s="51"/>
     </row>
     <row r="23" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D23" s="34" t="s">
+      <c r="D23" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="E23" s="35"/>
-      <c r="F23" s="35"/>
-      <c r="G23" s="35"/>
-      <c r="H23" s="35"/>
-      <c r="I23" s="36"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="41"/>
+      <c r="G23" s="41"/>
+      <c r="H23" s="41"/>
+      <c r="I23" s="42"/>
     </row>
     <row r="24" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D24" s="10" t="s">
@@ -2782,14 +2778,14 @@
       <c r="I24" s="53"/>
     </row>
     <row r="25" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D25" s="34" t="s">
+      <c r="D25" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="E25" s="35"/>
-      <c r="F25" s="35"/>
-      <c r="G25" s="35"/>
-      <c r="H25" s="35"/>
-      <c r="I25" s="36"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="41"/>
+      <c r="H25" s="41"/>
+      <c r="I25" s="42"/>
     </row>
     <row r="26" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D26" s="10" t="s">
@@ -2815,7 +2811,7 @@
     </row>
     <row r="28" spans="4:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D28" s="16" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="E28" s="45"/>
       <c r="F28" s="46"/>
@@ -2825,7 +2821,7 @@
     </row>
     <row r="29" spans="4:11" ht="16.2" x14ac:dyDescent="0.45">
       <c r="D29" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E29" s="27">
         <f>SUM(H16,H22,H24)</f>
@@ -2891,15 +2887,14 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="D5:I5"/>
+    <mergeCell ref="D7:I7"/>
+    <mergeCell ref="D8:I8"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="D6:G6"/>
     <mergeCell ref="D25:I25"/>
     <mergeCell ref="E26:I28"/>
     <mergeCell ref="H6:I6"/>
@@ -2916,14 +2911,15 @@
     <mergeCell ref="H13:I13"/>
     <mergeCell ref="H15:I15"/>
     <mergeCell ref="H19:I19"/>
-    <mergeCell ref="D5:I5"/>
-    <mergeCell ref="D7:I7"/>
-    <mergeCell ref="D8:I8"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F20:G20"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
@@ -2976,20 +2972,20 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="13"/>
-      <c r="B3" s="76" t="s">
-        <v>53</v>
-      </c>
-      <c r="C3" s="77"/>
+      <c r="B3" s="80" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="81"/>
       <c r="D3" s="13"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="13"/>
-      <c r="B4" s="73" t="s">
-        <v>54</v>
-      </c>
-      <c r="C4" s="80">
+      <c r="B4" s="77" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="84">
         <v>70000</v>
       </c>
       <c r="D4" s="26"/>
@@ -3001,26 +2997,26 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="13"/>
-      <c r="B5" s="74"/>
-      <c r="C5" s="81"/>
+      <c r="B5" s="78"/>
+      <c r="C5" s="85"/>
       <c r="D5" s="26"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="13"/>
-      <c r="B6" s="75"/>
-      <c r="C6" s="82"/>
+      <c r="B6" s="79"/>
+      <c r="C6" s="86"/>
       <c r="D6" s="13"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="13"/>
-      <c r="B7" s="78" t="s">
-        <v>55</v>
-      </c>
-      <c r="C7" s="79">
+      <c r="B7" s="82" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="83">
         <v>50</v>
       </c>
       <c r="D7" s="13"/>
@@ -3029,18 +3025,18 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="13"/>
-      <c r="B8" s="78"/>
-      <c r="C8" s="79"/>
+      <c r="B8" s="82"/>
+      <c r="C8" s="83"/>
       <c r="D8" s="13"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="13"/>
-      <c r="B9" s="69" t="s">
-        <v>56</v>
-      </c>
-      <c r="C9" s="71">
+      <c r="B9" s="73" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="75">
         <f>C4*C7</f>
         <v>3500000</v>
       </c>
@@ -3052,8 +3048,8 @@
     </row>
     <row r="10" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="13"/>
-      <c r="B10" s="70"/>
-      <c r="C10" s="72"/>
+      <c r="B10" s="74"/>
+      <c r="C10" s="76"/>
       <c r="D10" s="13"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -3251,7 +3247,7 @@
       <c r="A3" s="13"/>
       <c r="B3" s="13"/>
       <c r="C3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D3">
         <v>1.1000000000000001</v>
@@ -3276,29 +3272,29 @@
     <row r="5" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="13"/>
       <c r="B5" s="13"/>
-      <c r="C5" s="83" t="s">
+      <c r="C5" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="E5" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="F5" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="G5" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="H5" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="I5" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="I5" s="8" t="s">
+      <c r="J5" s="8" t="s">
         <v>48</v>
-      </c>
-      <c r="J5" s="8" t="s">
-        <v>49</v>
       </c>
       <c r="K5" s="13"/>
       <c r="L5" s="13"/>
@@ -3310,35 +3306,35 @@
     <row r="6" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="13"/>
       <c r="B6" s="13"/>
-      <c r="C6" s="84" t="s">
-        <v>50</v>
+      <c r="C6" s="29" t="s">
+        <v>49</v>
       </c>
       <c r="D6" s="6">
         <f>'ESTIMATED BENEFIT'!$C$9</f>
         <v>3500000</v>
       </c>
       <c r="E6" s="6">
-        <f>D6 *$D$3</f>
+        <f t="shared" ref="E6:J6" si="0">D6 *$D$3</f>
         <v>3850000.0000000005</v>
       </c>
       <c r="F6" s="6">
-        <f>E6 *$D$3</f>
+        <f t="shared" si="0"/>
         <v>4235000.0000000009</v>
       </c>
       <c r="G6" s="6">
-        <f>F6 *$D$3</f>
+        <f t="shared" si="0"/>
         <v>4658500.0000000019</v>
       </c>
       <c r="H6" s="6">
-        <f>G6 *$D$3</f>
+        <f t="shared" si="0"/>
         <v>5124350.0000000028</v>
       </c>
       <c r="I6" s="6">
-        <f>H6 *$D$3</f>
+        <f t="shared" si="0"/>
         <v>5636785.0000000037</v>
       </c>
       <c r="J6" s="6">
-        <f>I6 *$D$3</f>
+        <f t="shared" si="0"/>
         <v>6200463.5000000047</v>
       </c>
       <c r="K6" s="13"/>
@@ -3351,8 +3347,8 @@
     <row r="7" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="13"/>
       <c r="B7" s="13"/>
-      <c r="C7" s="85" t="s">
-        <v>51</v>
+      <c r="C7" s="30" t="s">
+        <v>50</v>
       </c>
       <c r="D7" s="4">
         <f>'ESTIMATED COST'!E29</f>
@@ -3392,8 +3388,8 @@
     <row r="8" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="13"/>
       <c r="B8" s="13"/>
-      <c r="C8" s="86" t="s">
-        <v>52</v>
+      <c r="C8" s="31" t="s">
+        <v>51</v>
       </c>
       <c r="D8" s="9">
         <f>D6-D7</f>
@@ -3840,26 +3836,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="0d803109-e11b-45d4-a4e8-5bf0740163af" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="31aac78f-6ed8-4134-ac7e-47c186d487c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010078E5C03F786D684AB79627F2BAF5AB3A" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6753d19c26ced2570449d2cfe2fd38cd">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="31aac78f-6ed8-4134-ac7e-47c186d487c3" xmlns:ns3="0d803109-e11b-45d4-a4e8-5bf0740163af" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="59531f12ec9f3761682ad3919ac9365f" ns2:_="" ns3:_="">
     <xsd:import namespace="31aac78f-6ed8-4134-ac7e-47c186d487c3"/>
@@ -4076,32 +4052,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{100D1C59-0AFB-4AD0-AF14-31460393ECF6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="0d803109-e11b-45d4-a4e8-5bf0740163af"/>
-    <ds:schemaRef ds:uri="31aac78f-6ed8-4134-ac7e-47c186d487c3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{42C38637-96E6-4DC7-B981-82904D5D0EB7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="0d803109-e11b-45d4-a4e8-5bf0740163af" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="31aac78f-6ed8-4134-ac7e-47c186d487c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D0A2079F-AE31-430D-9628-20FB0A87F0FE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4118,4 +4089,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{42C38637-96E6-4DC7-B981-82904D5D0EB7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{100D1C59-0AFB-4AD0-AF14-31460393ECF6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="0d803109-e11b-45d4-a4e8-5bf0740163af"/>
+    <ds:schemaRef ds:uri="31aac78f-6ed8-4134-ac7e-47c186d487c3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>